--- a/Assets/CSV/室.xlsx
+++ b/Assets/CSV/室.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Graduation\Grad\Graduation\Assets\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muror\Desktop\創作\Graduation\Graduation\Assets\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F362294E-5BBC-45E9-B4E7-58C7AB46C298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591CE52E-2FD4-4997-A4E8-317F13E7008D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="58">
   <si>
     <t>[TIME]</t>
     <phoneticPr fontId="1"/>
@@ -58,9 +58,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(0:1.2:0)</t>
-  </si>
-  <si>
     <t>(0:1.75:0)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -141,7 +138,135 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(0:1.2:0)</t>
+    <t>Fail!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.8:1.75:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.8:1.75:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.25:1.75:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.25:2.25:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.8:2.25:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.8:2.25:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0:2.25:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.25:1.75:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.25:2.25:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0:1.75:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.75:2:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.5:2:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.2:1.75:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0:1.65:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.2:1.75:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.5:2:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.2:2:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.3:1.75:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.3:1.75:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0:2:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.5:1.75:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.75:2:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.15:2:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.3:1.65:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.3:1.65:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.5:1.75:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.15:2:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.8:1.75.2:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.75:2.25:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0.75:1.9:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.75:2.25:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(-0.75:1.9:0)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -165,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +327,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -215,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -225,6 +368,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -505,15 +651,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -542,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>-15</v>
@@ -561,14 +707,14 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <f t="shared" ref="A3:A31" si="0">G3*H3+F3*2.7</f>
+        <f t="shared" ref="A3:A32" si="0">G3*H3+F3*2.7</f>
         <v>3.4278947368421053</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>-30</v>
@@ -578,7 +724,7 @@
         <v>0.1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G71" si="1">60/190/4</f>
+        <f t="shared" ref="G3:G74" si="1">60/190/4</f>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H3" s="1">
@@ -594,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -620,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -646,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>-45</v>
@@ -672,7 +818,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>45</v>
@@ -698,7 +844,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -724,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -750,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>165</v>
@@ -776,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -802,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>30</v>
@@ -828,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>30</v>
@@ -854,7 +1000,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>45</v>
@@ -880,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>45</v>
@@ -906,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>30</v>
@@ -932,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>60</v>
@@ -958,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>45</v>
@@ -984,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>45</v>
@@ -1010,7 +1156,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>45</v>
@@ -1036,7 +1182,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <v>45</v>
@@ -1062,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>45</v>
@@ -1088,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>30</v>
@@ -1114,7 +1260,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>60</v>
@@ -1140,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>-45</v>
@@ -1166,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>-45</v>
@@ -1192,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>-45</v>
@@ -1218,11 +1364,12 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E28" s="7"/>
       <c r="F28">
         <v>0.1</v>
       </c>
@@ -1236,17 +1383,20 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <f t="shared" si="0"/>
-        <v>12.901578947368421</v>
+        <f t="shared" ref="A29" si="2">G29*H29+F29*2.7</f>
+        <v>12.58578947368421</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>-15</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="F29">
         <v>0.1</v>
@@ -1256,23 +1406,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H29" s="1">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>13.21736842105263</v>
+        <v>12.901578947368421</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>24</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E30" s="3"/>
       <c r="F30">
         <v>0.1</v>
       </c>
@@ -1281,23 +1432,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H30" s="1">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>13.53315789473684</v>
+        <v>13.21736842105263</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>25</v>
-      </c>
+        <v>-30</v>
+      </c>
+      <c r="E31" s="3"/>
       <c r="F31">
         <v>0.1</v>
       </c>
@@ -1306,23 +1458,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H31" s="1">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <f>G32*H32+F32*2.7</f>
-        <v>14.164736842105262</v>
+        <f t="shared" si="0"/>
+        <v>13.53315789473684</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>26</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E32" s="3"/>
       <c r="F32">
         <v>0.1</v>
       </c>
@@ -1331,23 +1484,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H32" s="1">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <f>G33*H33+F33*2.7</f>
-        <v>14.480526315789472</v>
+        <f t="shared" ref="A33:A67" si="3">G33*H33+F33*2.7</f>
+        <v>14.164736842105262</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>27</v>
-      </c>
+        <v>-60</v>
+      </c>
+      <c r="E33" s="6"/>
       <c r="F33">
         <v>0.1</v>
       </c>
@@ -1356,23 +1510,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H33" s="1">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <f>G34*H34+F34*2.7</f>
-        <v>14.796315789473683</v>
+        <f t="shared" si="3"/>
+        <v>14.480526315789472</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>28</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E34" s="6"/>
       <c r="F34">
         <v>0.1</v>
       </c>
@@ -1381,23 +1536,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H34" s="1">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <f>G35*H35+F35*2.7</f>
-        <v>15.427894736842104</v>
+        <f t="shared" si="3"/>
+        <v>14.796315789473683</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>29</v>
-      </c>
+        <v>-45</v>
+      </c>
+      <c r="E35" s="6"/>
       <c r="F35">
         <v>0.1</v>
       </c>
@@ -1406,23 +1562,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H35" s="1">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <f>G36*H36+F36*2.7</f>
-        <v>15.743684210526315</v>
+        <f t="shared" si="3"/>
+        <v>15.427894736842104</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>30</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E36" s="3"/>
       <c r="F36">
         <v>0.1</v>
       </c>
@@ -1431,23 +1588,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H36" s="1">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <f>G37*H37+F37*2.7</f>
-        <v>16.059473684210527</v>
+        <f t="shared" si="3"/>
+        <v>15.743684210526315</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E37" s="3"/>
       <c r="F37">
         <v>0.1</v>
       </c>
@@ -1456,23 +1614,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H37" s="1">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <f>G38*H38+F38*2.7</f>
-        <v>16.691052631578945</v>
+        <f t="shared" si="3"/>
+        <v>16.059473684210527</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D38">
-        <v>32</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E38" s="3"/>
       <c r="F38">
         <v>0.1</v>
       </c>
@@ -1481,23 +1640,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H38" s="1">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <f>G39*H39+F39*2.7</f>
-        <v>17.006842105263157</v>
+        <f t="shared" si="3"/>
+        <v>16.691052631578945</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39">
         <v>0.1</v>
       </c>
@@ -1506,23 +1666,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H39" s="1">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <f>G40*H40+F40*2.7</f>
-        <v>17.322631578947366</v>
+        <f t="shared" si="3"/>
+        <v>17.006842105263157</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>34</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="E40" s="6"/>
       <c r="F40">
         <v>0.1</v>
       </c>
@@ -1531,23 +1692,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H40" s="1">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <f>G41*H41+F41*2.7</f>
-        <v>17.954210526315787</v>
+        <f t="shared" si="3"/>
+        <v>17.322631578947366</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D41">
-        <v>35</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E41" s="6"/>
       <c r="F41">
         <v>0.1</v>
       </c>
@@ -1556,23 +1718,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H41" s="1">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <f>G42*H42+F42*2.7</f>
-        <v>18.27</v>
+        <f t="shared" si="3"/>
+        <v>17.954210526315787</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E42" s="3"/>
       <c r="F42">
         <v>0.1</v>
       </c>
@@ -1581,23 +1744,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H42" s="1">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <f>G43*H43+F43*2.7</f>
-        <v>18.585789473684208</v>
+        <f t="shared" si="3"/>
+        <v>18.27</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D43">
-        <v>37</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E43" s="3"/>
       <c r="F43">
         <v>0.1</v>
       </c>
@@ -1606,23 +1770,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H43" s="1">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <f>G44*H44+F44*2.7</f>
-        <v>18.901578947368421</v>
+        <f t="shared" si="3"/>
+        <v>18.585789473684208</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D44">
-        <v>38</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E44" s="3"/>
       <c r="F44">
         <v>0.1</v>
       </c>
@@ -1631,23 +1796,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H44" s="1">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <f>G45*H45+F45*2.7</f>
-        <v>19.21736842105263</v>
+        <f t="shared" si="3"/>
+        <v>18.901578947368421</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D45">
-        <v>39</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E45" s="3"/>
       <c r="F45">
         <v>0.1</v>
       </c>
@@ -1656,23 +1822,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H45" s="1">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <f>G46*H46+F46*2.7</f>
-        <v>19.533157894736842</v>
+        <f t="shared" si="3"/>
+        <v>19.21736842105263</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D46">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E46" s="3"/>
       <c r="F46">
         <v>0.1</v>
       </c>
@@ -1681,23 +1848,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H46" s="1">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <f>G47*H47+F47*2.7</f>
-        <v>19.848947368421051</v>
+        <f t="shared" si="3"/>
+        <v>19.533157894736842</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D47">
-        <v>41</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E47" s="3"/>
       <c r="F47">
         <v>0.1</v>
       </c>
@@ -1706,23 +1874,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H47" s="1">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <f>G48*H48+F48*2.7</f>
-        <v>20.480526315789472</v>
+        <f t="shared" si="3"/>
+        <v>19.848947368421051</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>42</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E48" s="3"/>
       <c r="F48">
         <v>0.1</v>
       </c>
@@ -1731,23 +1900,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H48" s="1">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <f>G49*H49+F49*2.7</f>
-        <v>20.796315789473681</v>
+        <f t="shared" si="3"/>
+        <v>20.480526315789472</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E49" s="6"/>
       <c r="F49">
         <v>0.1</v>
       </c>
@@ -1756,23 +1926,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H49" s="1">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <f>G50*H50+F50*2.7</f>
-        <v>21.112105263157893</v>
+        <f t="shared" si="3"/>
+        <v>20.796315789473681</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D50">
-        <v>44</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="E50" s="8"/>
       <c r="F50">
         <v>0.1</v>
       </c>
@@ -1781,23 +1952,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H50" s="1">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <f>G51*H51+F51*2.7</f>
-        <v>21.427894736842102</v>
+        <f t="shared" si="3"/>
+        <v>20.796315789473681</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D51">
-        <v>45</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="E51" s="8"/>
       <c r="F51">
         <v>0.1</v>
       </c>
@@ -1806,23 +1978,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H51" s="1">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <f>G52*H52+F52*2.7</f>
-        <v>21.743684210526315</v>
+        <f t="shared" si="3"/>
+        <v>21.112105263157893</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D52">
-        <v>46</v>
-      </c>
+        <v>-45</v>
+      </c>
+      <c r="E52" s="6"/>
       <c r="F52">
         <v>0.1</v>
       </c>
@@ -1831,23 +2004,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H52" s="1">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <f>G53*H53+F53*2.7</f>
-        <v>22.059473684210523</v>
+        <f t="shared" si="3"/>
+        <v>21.427894736842102</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D53">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E53" s="8"/>
       <c r="F53">
         <v>0.1</v>
       </c>
@@ -1856,23 +2030,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H53" s="1">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <f>G54*H54+F54*2.7</f>
-        <v>22.375263157894736</v>
+        <f t="shared" si="3"/>
+        <v>21.427894736842102</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D54">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E54" s="8"/>
       <c r="F54">
         <v>0.1</v>
       </c>
@@ -1881,23 +2056,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H54" s="1">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <f>G55*H55+F55*2.7</f>
-        <v>22.533157894736842</v>
+        <f t="shared" si="3"/>
+        <v>21.743684210526315</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D55">
-        <v>49</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E55" s="6"/>
       <c r="F55">
         <v>0.1</v>
       </c>
@@ -1906,23 +2082,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H55" s="1">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <f>G56*H56+F56*2.7</f>
-        <v>22.691052631578945</v>
+        <f t="shared" si="3"/>
+        <v>22.059473684210523</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D56">
-        <v>50</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E56" s="8"/>
       <c r="F56">
         <v>0.1</v>
       </c>
@@ -1931,23 +2108,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H56" s="1">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <f>G57*H57+F57*2.7</f>
-        <v>23.006842105263157</v>
+        <f t="shared" ref="A57" si="4">G57*H57+F57*2.7</f>
+        <v>22.059473684210523</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D57">
-        <v>51</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E57" s="8"/>
       <c r="F57">
         <v>0.1</v>
       </c>
@@ -1956,23 +2134,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H57" s="1">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <f>G58*H58+F58*2.7</f>
-        <v>23.322631578947366</v>
+        <f t="shared" si="3"/>
+        <v>22.375263157894736</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D58">
-        <v>52</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E58" s="6"/>
       <c r="F58">
         <v>0.1</v>
       </c>
@@ -1981,23 +2160,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H58" s="1">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <f>G59*H59+F59*2.7</f>
-        <v>23.638421052631578</v>
+        <f t="shared" si="3"/>
+        <v>22.533157894736842</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D59">
-        <v>53</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E59" s="3"/>
       <c r="F59">
         <v>0.1</v>
       </c>
@@ -2006,23 +2186,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H59" s="1">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <f>G60*H60+F60*2.7</f>
-        <v>24.27</v>
+        <f t="shared" si="3"/>
+        <v>22.691052631578945</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D60">
-        <v>54</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E60" s="3"/>
       <c r="F60">
         <v>0.1</v>
       </c>
@@ -2031,23 +2212,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H60" s="1">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <f>G61*H61+F61*2.7</f>
-        <v>24.585789473684208</v>
+        <f t="shared" si="3"/>
+        <v>23.006842105263157</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D61">
-        <v>55</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E61" s="6"/>
       <c r="F61">
         <v>0.1</v>
       </c>
@@ -2056,23 +2238,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H61" s="1">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <f>G62*H62+F62*2.7</f>
-        <v>24.901578947368421</v>
+        <f t="shared" si="3"/>
+        <v>23.322631578947366</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D62">
-        <v>56</v>
-      </c>
+        <v>-30</v>
+      </c>
+      <c r="E62" s="6"/>
       <c r="F62">
         <v>0.1</v>
       </c>
@@ -2081,23 +2264,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H62" s="1">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <f>G63*H63+F63*2.7</f>
-        <v>25.533157894736842</v>
+        <f t="shared" si="3"/>
+        <v>23.638421052631578</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D63">
-        <v>57</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E63" s="6"/>
       <c r="F63">
         <v>0.1</v>
       </c>
@@ -2106,23 +2290,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H63" s="1">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <f>G64*H64+F64*2.7</f>
-        <v>25.848947368421051</v>
+        <f t="shared" si="3"/>
+        <v>24.27</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>58</v>
-      </c>
+        <v>-60</v>
+      </c>
+      <c r="E64" s="3"/>
       <c r="F64">
         <v>0.1</v>
       </c>
@@ -2131,23 +2316,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H64" s="1">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <f>G65*H65+F65*2.7</f>
-        <v>26.16473684210526</v>
+        <f t="shared" si="3"/>
+        <v>24.585789473684208</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>59</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E65" s="3"/>
       <c r="F65">
         <v>0.1</v>
       </c>
@@ -2156,23 +2342,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H65" s="1">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <f>G66*H66+F66*2.7</f>
-        <v>26.480526315789472</v>
+        <f t="shared" si="3"/>
+        <v>24.901578947368421</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D66">
-        <v>60</v>
-      </c>
+        <v>-45</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66">
         <v>0.1</v>
       </c>
@@ -2181,23 +2368,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H66" s="1">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <f>G67*H67+F67*2.7</f>
-        <v>26.796315789473681</v>
+        <f t="shared" si="3"/>
+        <v>25.533157894736842</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E67" s="6"/>
       <c r="F67">
         <v>0.1</v>
       </c>
@@ -2206,23 +2394,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H67" s="1">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <f>G68*H68+F68*2.7</f>
-        <v>27.112105263157893</v>
+        <f t="shared" ref="A68:A94" si="5">G68*H68+F68*2.7</f>
+        <v>25.848947368421051</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D68">
-        <v>62</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E68" s="6"/>
       <c r="F68">
         <v>0.1</v>
       </c>
@@ -2231,23 +2420,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H68" s="1">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <f>G69*H69+F69*2.7</f>
-        <v>27.427894736842102</v>
+        <f t="shared" si="5"/>
+        <v>26.16473684210526</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D69">
-        <v>63</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E69" s="6"/>
       <c r="F69">
         <v>0.1</v>
       </c>
@@ -2256,23 +2446,24 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H69" s="1">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <f>G70*H70+F70*2.7</f>
-        <v>28.059473684210523</v>
+        <f t="shared" si="5"/>
+        <v>26.480526315789472</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D70">
-        <v>64</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E70" s="6"/>
       <c r="F70">
         <v>0.1</v>
       </c>
@@ -2281,380 +2472,654 @@
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H70" s="1">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <f>G71*H71+F71*2.7</f>
-        <v>28.375263157894736</v>
+        <f t="shared" si="5"/>
+        <v>26.796315789473681</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D71">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E71" s="6"/>
       <c r="F71">
         <v>0.1</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G84" si="2">60/190/4</f>
+        <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H71" s="1">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <f>G72*H72+F72*2.7</f>
-        <v>28.691052631578945</v>
+        <f t="shared" si="5"/>
+        <v>27.112105263157893</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D72">
-        <v>66</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E72" s="6"/>
       <c r="F72">
         <v>0.1</v>
       </c>
       <c r="G72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H72" s="1">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <f>G73*H73+F73*2.7</f>
-        <v>29.006842105263157</v>
+        <f t="shared" si="5"/>
+        <v>27.427894736842102</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D73">
-        <v>67</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E73" s="6"/>
       <c r="F73">
         <v>0.1</v>
       </c>
       <c r="G73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H73" s="1">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <f>G74*H74+F74*2.7</f>
-        <v>29.322631578947366</v>
+        <f t="shared" si="5"/>
+        <v>28.059473684210523</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D74">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E74" s="3"/>
       <c r="F74">
         <v>0.1</v>
       </c>
       <c r="G74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H74" s="1">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <f>G75*H75+F75*2.7</f>
-        <v>29.638421052631578</v>
+        <f t="shared" si="5"/>
+        <v>28.375263157894736</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D75">
-        <v>69</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="E75" s="8"/>
       <c r="F75">
         <v>0.1</v>
       </c>
       <c r="G75">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G75:G94" si="6">60/190/4</f>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H75" s="1">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <f>G76*H76+F76*2.7</f>
-        <v>29.954210526315787</v>
+        <f t="shared" si="5"/>
+        <v>28.375263157894736</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D76">
-        <v>70</v>
-      </c>
+        <v>-15</v>
+      </c>
+      <c r="E76" s="8"/>
       <c r="F76">
         <v>0.1</v>
       </c>
       <c r="G76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H76" s="1">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <f>G77*H77+F77*2.7</f>
-        <v>30.585789473684208</v>
+        <f t="shared" si="5"/>
+        <v>28.691052631578945</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D77">
-        <v>71</v>
-      </c>
+        <v>-45</v>
+      </c>
+      <c r="E77" s="3"/>
       <c r="F77">
         <v>0.1</v>
       </c>
       <c r="G77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H77" s="1">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <f>G78*H78+F78*2.7</f>
-        <v>30.743684210526315</v>
+        <f t="shared" si="5"/>
+        <v>29.006842105263157</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D78">
-        <v>72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E78" s="8"/>
       <c r="F78">
         <v>0.1</v>
       </c>
       <c r="G78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H78" s="1">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <f>G79*H79+F79*2.7</f>
-        <v>30.901578947368417</v>
+        <f t="shared" si="5"/>
+        <v>29.006842105263157</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D79">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E79" s="8"/>
       <c r="F79">
         <v>0.1</v>
       </c>
       <c r="G79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H79" s="1">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <f>G80*H80+F80*2.7</f>
-        <v>31.059473684210523</v>
+        <f t="shared" si="5"/>
+        <v>29.322631578947366</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D80">
-        <v>74</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E80" s="3"/>
       <c r="F80">
         <v>0.1</v>
       </c>
       <c r="G80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H80" s="1">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <f>G81*H81+F81*2.7</f>
-        <v>31.21736842105263</v>
+        <f t="shared" si="5"/>
+        <v>29.638421052631578</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D81">
-        <v>75</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E81" s="8"/>
       <c r="F81">
         <v>0.1</v>
       </c>
       <c r="G81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H81" s="1">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <f>G82*H82+F82*2.7</f>
-        <v>31.375263157894736</v>
+        <f t="shared" si="5"/>
+        <v>29.638421052631578</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D82">
-        <v>76</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E82" s="8"/>
       <c r="F82">
         <v>0.1</v>
       </c>
       <c r="G82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H82" s="1">
-        <v>394</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <f>G83*H83+F83*2.7</f>
-        <v>31.533157894736839</v>
+        <f t="shared" si="5"/>
+        <v>29.954210526315787</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D83">
-        <v>77</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E83" s="3"/>
       <c r="F83">
         <v>0.1</v>
       </c>
       <c r="G83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H83" s="1">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <f>G84*H84+F84*2.7</f>
+        <f t="shared" si="5"/>
+        <v>30.585789473684208</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>45</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84">
+        <v>0.1</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="6"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H84" s="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <f t="shared" si="5"/>
+        <v>30.743684210526315</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85">
+        <v>90</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85">
+        <v>0.1</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H85" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <f t="shared" si="5"/>
+        <v>30.901578947368417</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86">
+        <v>45</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86">
+        <v>0.1</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="6"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H86" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <f t="shared" si="5"/>
+        <v>31.059473684210523</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87">
+        <v>90</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87">
+        <v>0.1</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="6"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H87" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <f t="shared" si="5"/>
+        <v>31.21736842105263</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88">
+        <v>30</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88">
+        <v>0.1</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="6"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H88" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <f t="shared" ref="A89" si="7">G89*H89+F89*2.7</f>
+        <v>31.21736842105263</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89">
+        <v>30</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89">
+        <v>0.1</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="6"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H89" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <f t="shared" si="5"/>
+        <v>31.375263157894736</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90">
+        <v>45</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90">
+        <v>0.1</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="6"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H90" s="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <f t="shared" ref="A91" si="8">G91*H91+F91*2.7</f>
+        <v>31.375263157894736</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91">
+        <v>45</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91">
+        <v>0.1</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="6"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H91" s="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <f t="shared" si="5"/>
+        <v>31.533157894736839</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>60</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92">
+        <v>0.1</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="6"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H92" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <f t="shared" ref="A93" si="9">G93*H93+F93*2.7</f>
+        <v>31.533157894736839</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93">
+        <v>60</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93">
+        <v>0.1</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="6"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H93" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <f t="shared" si="5"/>
         <v>32.480526315789476</v>
       </c>
-      <c r="B84" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84">
-        <v>78</v>
-      </c>
-      <c r="F84">
-        <v>0.1</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="2"/>
-        <v>7.8947368421052627E-2</v>
-      </c>
-      <c r="H84" s="1">
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94">
+        <v>30</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94">
+        <v>0.1</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="6"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H94" s="1">
         <v>408</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
-      <c r="F86" s="1"/>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="H92" s="1"/>
+    <row r="96" spans="1:8">
+      <c r="F96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="8:8">
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="8:8">
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="8:8">
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="8:8">
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="8:8">
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="8:8">
+      <c r="H102" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
